--- a/CLINICA KENNEDY SAMBORONDON/20240400545. PROTESIS DE CADERA GASTO.xlsx
+++ b/CLINICA KENNEDY SAMBORONDON/20240400545. PROTESIS DE CADERA GASTO.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CLINICA KENNEDY SAMBORONDON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CCCD5E-CC45-4294-9D88-7777AD4353B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA50E3DC-D361-4E5D-94AA-1B8B94E186C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$2:$G$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$2:$G$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>FECHA DE EMISIÓN:</t>
   </si>
@@ -204,51 +204,6 @@
     <t/>
   </si>
   <si>
-    <t>TI-SF-130.602R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLACA BLOQ. RADIO DISTAL AV BICOLUMNAR SMALL 2.4mm*2 ORIF DER TIT. </t>
-  </si>
-  <si>
-    <t>TI-SF-135.602R</t>
-  </si>
-  <si>
-    <t>2306001328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLACA BLOQ. RADIO DISTAL AV BICOLUMNAR SMALL XS 2.4mm*2 ORIF DER.  TIT. </t>
-  </si>
-  <si>
-    <t>TI-SF-130.603R</t>
-  </si>
-  <si>
-    <t>210127166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLACA BLOQ. RADIO DISTAL AV BICOLUMNAR SMALL 2.4mm*3 ORIF DER TIT. </t>
-  </si>
-  <si>
-    <t>TI-SF-135.603R</t>
-  </si>
-  <si>
-    <t>2306001330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLACA BLOQ. RADIO DISTAL AV BICOLUMNAR SMALL XS 2.4mm*3 ORIF DER.  TIT. </t>
-  </si>
-  <si>
-    <t>TI-SF-130.604R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLACA BLOQ. RADIO DISTAL AV BICOLUMNAR SMALL 2.4mm*4 ORIF DER TIT. </t>
-  </si>
-  <si>
-    <t>TI-SF-130.605R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLACA BLOQ. RADIO DISTAL AV BICOLUMNAR SMALL 2.4mm*5 ORIF DER TIT. </t>
-  </si>
-  <si>
     <t xml:space="preserve">RECIBIDO </t>
   </si>
   <si>
@@ -261,34 +216,46 @@
     <t>IVA 15%</t>
   </si>
   <si>
-    <t xml:space="preserve">2300015703 </t>
-  </si>
-  <si>
-    <t>2200189365</t>
-  </si>
-  <si>
-    <t>C190215311</t>
-  </si>
-  <si>
-    <t>18B4322</t>
-  </si>
-  <si>
-    <t>28169</t>
-  </si>
-  <si>
-    <t>A190215303</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:00PM </t>
   </si>
   <si>
     <t>DR. LAMA</t>
   </si>
   <si>
-    <t>AVIAS BUCARAN JACQUELINE</t>
-  </si>
-  <si>
     <t xml:space="preserve">BEST DOCTOR </t>
+  </si>
+  <si>
+    <t>3112527</t>
+  </si>
+  <si>
+    <t>C30410045</t>
+  </si>
+  <si>
+    <t>DIAMOND™ CO-CR-MO BIPOLAR HEAD 45# (F45/F24)</t>
+  </si>
+  <si>
+    <t>C20810003</t>
+  </si>
+  <si>
+    <t>DIAMOND™ CO-CR-MO FEMORAL STEM 3# (140 × 9 × 130°)</t>
+  </si>
+  <si>
+    <t>P20820003B</t>
+  </si>
+  <si>
+    <t>BONE CEMENT PLUG 3# (F13MM)</t>
+  </si>
+  <si>
+    <t>C32112403</t>
+  </si>
+  <si>
+    <t>DIAMOND™ CO-CR-MO FEMORAL HEAD ?24 × 3.5MM</t>
+  </si>
+  <si>
+    <t>G1A40 BONE CEMENT</t>
+  </si>
+  <si>
+    <t>AVIAS BUCARAM JACQUELINE</t>
   </si>
 </sst>
 </file>
@@ -296,16 +263,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;&quot;$&quot;\-#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;&quot;$&quot;\-#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -670,167 +637,167 @@
   <cellStyleXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -896,7 +863,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -929,7 +896,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -938,18 +905,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="9" fillId="0" borderId="1" xfId="159" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="159" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -961,6 +928,21 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1165,7 +1147,48 @@
     <cellStyle name="Porcentaje 2" xfId="64" xr:uid="{1137220D-142C-4711-8F15-84F5C879B6D8}"/>
     <cellStyle name="常规 4" xfId="60" xr:uid="{F924C058-F22B-42D8-8837-B3653E359BA7}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1524,416 +1547,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="20.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="84.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="6" customWidth="1"/>
-    <col min="8" max="11" width="11.42578125" style="6"/>
-    <col min="12" max="12" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="258" width="11.42578125" style="6"/>
-    <col min="259" max="259" width="13.140625" style="6" customWidth="1"/>
-    <col min="260" max="260" width="15.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="84.54296875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="6" customWidth="1"/>
+    <col min="8" max="11" width="11.453125" style="6"/>
+    <col min="12" max="12" width="14.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="258" width="11.453125" style="6"/>
+    <col min="259" max="259" width="13.1796875" style="6" customWidth="1"/>
+    <col min="260" max="260" width="15.1796875" style="6" customWidth="1"/>
     <col min="261" max="261" width="42" style="6" customWidth="1"/>
-    <col min="262" max="262" width="11.42578125" style="6"/>
-    <col min="263" max="263" width="13.140625" style="6" customWidth="1"/>
-    <col min="264" max="514" width="11.42578125" style="6"/>
-    <col min="515" max="515" width="13.140625" style="6" customWidth="1"/>
-    <col min="516" max="516" width="15.140625" style="6" customWidth="1"/>
+    <col min="262" max="262" width="11.453125" style="6"/>
+    <col min="263" max="263" width="13.1796875" style="6" customWidth="1"/>
+    <col min="264" max="514" width="11.453125" style="6"/>
+    <col min="515" max="515" width="13.1796875" style="6" customWidth="1"/>
+    <col min="516" max="516" width="15.1796875" style="6" customWidth="1"/>
     <col min="517" max="517" width="42" style="6" customWidth="1"/>
-    <col min="518" max="518" width="11.42578125" style="6"/>
-    <col min="519" max="519" width="13.140625" style="6" customWidth="1"/>
-    <col min="520" max="770" width="11.42578125" style="6"/>
-    <col min="771" max="771" width="13.140625" style="6" customWidth="1"/>
-    <col min="772" max="772" width="15.140625" style="6" customWidth="1"/>
+    <col min="518" max="518" width="11.453125" style="6"/>
+    <col min="519" max="519" width="13.1796875" style="6" customWidth="1"/>
+    <col min="520" max="770" width="11.453125" style="6"/>
+    <col min="771" max="771" width="13.1796875" style="6" customWidth="1"/>
+    <col min="772" max="772" width="15.1796875" style="6" customWidth="1"/>
     <col min="773" max="773" width="42" style="6" customWidth="1"/>
-    <col min="774" max="774" width="11.42578125" style="6"/>
-    <col min="775" max="775" width="13.140625" style="6" customWidth="1"/>
-    <col min="776" max="1026" width="11.42578125" style="6"/>
-    <col min="1027" max="1027" width="13.140625" style="6" customWidth="1"/>
-    <col min="1028" max="1028" width="15.140625" style="6" customWidth="1"/>
+    <col min="774" max="774" width="11.453125" style="6"/>
+    <col min="775" max="775" width="13.1796875" style="6" customWidth="1"/>
+    <col min="776" max="1026" width="11.453125" style="6"/>
+    <col min="1027" max="1027" width="13.1796875" style="6" customWidth="1"/>
+    <col min="1028" max="1028" width="15.1796875" style="6" customWidth="1"/>
     <col min="1029" max="1029" width="42" style="6" customWidth="1"/>
-    <col min="1030" max="1030" width="11.42578125" style="6"/>
-    <col min="1031" max="1031" width="13.140625" style="6" customWidth="1"/>
-    <col min="1032" max="1282" width="11.42578125" style="6"/>
-    <col min="1283" max="1283" width="13.140625" style="6" customWidth="1"/>
-    <col min="1284" max="1284" width="15.140625" style="6" customWidth="1"/>
+    <col min="1030" max="1030" width="11.453125" style="6"/>
+    <col min="1031" max="1031" width="13.1796875" style="6" customWidth="1"/>
+    <col min="1032" max="1282" width="11.453125" style="6"/>
+    <col min="1283" max="1283" width="13.1796875" style="6" customWidth="1"/>
+    <col min="1284" max="1284" width="15.1796875" style="6" customWidth="1"/>
     <col min="1285" max="1285" width="42" style="6" customWidth="1"/>
-    <col min="1286" max="1286" width="11.42578125" style="6"/>
-    <col min="1287" max="1287" width="13.140625" style="6" customWidth="1"/>
-    <col min="1288" max="1538" width="11.42578125" style="6"/>
-    <col min="1539" max="1539" width="13.140625" style="6" customWidth="1"/>
-    <col min="1540" max="1540" width="15.140625" style="6" customWidth="1"/>
+    <col min="1286" max="1286" width="11.453125" style="6"/>
+    <col min="1287" max="1287" width="13.1796875" style="6" customWidth="1"/>
+    <col min="1288" max="1538" width="11.453125" style="6"/>
+    <col min="1539" max="1539" width="13.1796875" style="6" customWidth="1"/>
+    <col min="1540" max="1540" width="15.1796875" style="6" customWidth="1"/>
     <col min="1541" max="1541" width="42" style="6" customWidth="1"/>
-    <col min="1542" max="1542" width="11.42578125" style="6"/>
-    <col min="1543" max="1543" width="13.140625" style="6" customWidth="1"/>
-    <col min="1544" max="1794" width="11.42578125" style="6"/>
-    <col min="1795" max="1795" width="13.140625" style="6" customWidth="1"/>
-    <col min="1796" max="1796" width="15.140625" style="6" customWidth="1"/>
+    <col min="1542" max="1542" width="11.453125" style="6"/>
+    <col min="1543" max="1543" width="13.1796875" style="6" customWidth="1"/>
+    <col min="1544" max="1794" width="11.453125" style="6"/>
+    <col min="1795" max="1795" width="13.1796875" style="6" customWidth="1"/>
+    <col min="1796" max="1796" width="15.1796875" style="6" customWidth="1"/>
     <col min="1797" max="1797" width="42" style="6" customWidth="1"/>
-    <col min="1798" max="1798" width="11.42578125" style="6"/>
-    <col min="1799" max="1799" width="13.140625" style="6" customWidth="1"/>
-    <col min="1800" max="2050" width="11.42578125" style="6"/>
-    <col min="2051" max="2051" width="13.140625" style="6" customWidth="1"/>
-    <col min="2052" max="2052" width="15.140625" style="6" customWidth="1"/>
+    <col min="1798" max="1798" width="11.453125" style="6"/>
+    <col min="1799" max="1799" width="13.1796875" style="6" customWidth="1"/>
+    <col min="1800" max="2050" width="11.453125" style="6"/>
+    <col min="2051" max="2051" width="13.1796875" style="6" customWidth="1"/>
+    <col min="2052" max="2052" width="15.1796875" style="6" customWidth="1"/>
     <col min="2053" max="2053" width="42" style="6" customWidth="1"/>
-    <col min="2054" max="2054" width="11.42578125" style="6"/>
-    <col min="2055" max="2055" width="13.140625" style="6" customWidth="1"/>
-    <col min="2056" max="2306" width="11.42578125" style="6"/>
-    <col min="2307" max="2307" width="13.140625" style="6" customWidth="1"/>
-    <col min="2308" max="2308" width="15.140625" style="6" customWidth="1"/>
+    <col min="2054" max="2054" width="11.453125" style="6"/>
+    <col min="2055" max="2055" width="13.1796875" style="6" customWidth="1"/>
+    <col min="2056" max="2306" width="11.453125" style="6"/>
+    <col min="2307" max="2307" width="13.1796875" style="6" customWidth="1"/>
+    <col min="2308" max="2308" width="15.1796875" style="6" customWidth="1"/>
     <col min="2309" max="2309" width="42" style="6" customWidth="1"/>
-    <col min="2310" max="2310" width="11.42578125" style="6"/>
-    <col min="2311" max="2311" width="13.140625" style="6" customWidth="1"/>
-    <col min="2312" max="2562" width="11.42578125" style="6"/>
-    <col min="2563" max="2563" width="13.140625" style="6" customWidth="1"/>
-    <col min="2564" max="2564" width="15.140625" style="6" customWidth="1"/>
+    <col min="2310" max="2310" width="11.453125" style="6"/>
+    <col min="2311" max="2311" width="13.1796875" style="6" customWidth="1"/>
+    <col min="2312" max="2562" width="11.453125" style="6"/>
+    <col min="2563" max="2563" width="13.1796875" style="6" customWidth="1"/>
+    <col min="2564" max="2564" width="15.1796875" style="6" customWidth="1"/>
     <col min="2565" max="2565" width="42" style="6" customWidth="1"/>
-    <col min="2566" max="2566" width="11.42578125" style="6"/>
-    <col min="2567" max="2567" width="13.140625" style="6" customWidth="1"/>
-    <col min="2568" max="2818" width="11.42578125" style="6"/>
-    <col min="2819" max="2819" width="13.140625" style="6" customWidth="1"/>
-    <col min="2820" max="2820" width="15.140625" style="6" customWidth="1"/>
+    <col min="2566" max="2566" width="11.453125" style="6"/>
+    <col min="2567" max="2567" width="13.1796875" style="6" customWidth="1"/>
+    <col min="2568" max="2818" width="11.453125" style="6"/>
+    <col min="2819" max="2819" width="13.1796875" style="6" customWidth="1"/>
+    <col min="2820" max="2820" width="15.1796875" style="6" customWidth="1"/>
     <col min="2821" max="2821" width="42" style="6" customWidth="1"/>
-    <col min="2822" max="2822" width="11.42578125" style="6"/>
-    <col min="2823" max="2823" width="13.140625" style="6" customWidth="1"/>
-    <col min="2824" max="3074" width="11.42578125" style="6"/>
-    <col min="3075" max="3075" width="13.140625" style="6" customWidth="1"/>
-    <col min="3076" max="3076" width="15.140625" style="6" customWidth="1"/>
+    <col min="2822" max="2822" width="11.453125" style="6"/>
+    <col min="2823" max="2823" width="13.1796875" style="6" customWidth="1"/>
+    <col min="2824" max="3074" width="11.453125" style="6"/>
+    <col min="3075" max="3075" width="13.1796875" style="6" customWidth="1"/>
+    <col min="3076" max="3076" width="15.1796875" style="6" customWidth="1"/>
     <col min="3077" max="3077" width="42" style="6" customWidth="1"/>
-    <col min="3078" max="3078" width="11.42578125" style="6"/>
-    <col min="3079" max="3079" width="13.140625" style="6" customWidth="1"/>
-    <col min="3080" max="3330" width="11.42578125" style="6"/>
-    <col min="3331" max="3331" width="13.140625" style="6" customWidth="1"/>
-    <col min="3332" max="3332" width="15.140625" style="6" customWidth="1"/>
+    <col min="3078" max="3078" width="11.453125" style="6"/>
+    <col min="3079" max="3079" width="13.1796875" style="6" customWidth="1"/>
+    <col min="3080" max="3330" width="11.453125" style="6"/>
+    <col min="3331" max="3331" width="13.1796875" style="6" customWidth="1"/>
+    <col min="3332" max="3332" width="15.1796875" style="6" customWidth="1"/>
     <col min="3333" max="3333" width="42" style="6" customWidth="1"/>
-    <col min="3334" max="3334" width="11.42578125" style="6"/>
-    <col min="3335" max="3335" width="13.140625" style="6" customWidth="1"/>
-    <col min="3336" max="3586" width="11.42578125" style="6"/>
-    <col min="3587" max="3587" width="13.140625" style="6" customWidth="1"/>
-    <col min="3588" max="3588" width="15.140625" style="6" customWidth="1"/>
+    <col min="3334" max="3334" width="11.453125" style="6"/>
+    <col min="3335" max="3335" width="13.1796875" style="6" customWidth="1"/>
+    <col min="3336" max="3586" width="11.453125" style="6"/>
+    <col min="3587" max="3587" width="13.1796875" style="6" customWidth="1"/>
+    <col min="3588" max="3588" width="15.1796875" style="6" customWidth="1"/>
     <col min="3589" max="3589" width="42" style="6" customWidth="1"/>
-    <col min="3590" max="3590" width="11.42578125" style="6"/>
-    <col min="3591" max="3591" width="13.140625" style="6" customWidth="1"/>
-    <col min="3592" max="3842" width="11.42578125" style="6"/>
-    <col min="3843" max="3843" width="13.140625" style="6" customWidth="1"/>
-    <col min="3844" max="3844" width="15.140625" style="6" customWidth="1"/>
+    <col min="3590" max="3590" width="11.453125" style="6"/>
+    <col min="3591" max="3591" width="13.1796875" style="6" customWidth="1"/>
+    <col min="3592" max="3842" width="11.453125" style="6"/>
+    <col min="3843" max="3843" width="13.1796875" style="6" customWidth="1"/>
+    <col min="3844" max="3844" width="15.1796875" style="6" customWidth="1"/>
     <col min="3845" max="3845" width="42" style="6" customWidth="1"/>
-    <col min="3846" max="3846" width="11.42578125" style="6"/>
-    <col min="3847" max="3847" width="13.140625" style="6" customWidth="1"/>
-    <col min="3848" max="4098" width="11.42578125" style="6"/>
-    <col min="4099" max="4099" width="13.140625" style="6" customWidth="1"/>
-    <col min="4100" max="4100" width="15.140625" style="6" customWidth="1"/>
+    <col min="3846" max="3846" width="11.453125" style="6"/>
+    <col min="3847" max="3847" width="13.1796875" style="6" customWidth="1"/>
+    <col min="3848" max="4098" width="11.453125" style="6"/>
+    <col min="4099" max="4099" width="13.1796875" style="6" customWidth="1"/>
+    <col min="4100" max="4100" width="15.1796875" style="6" customWidth="1"/>
     <col min="4101" max="4101" width="42" style="6" customWidth="1"/>
-    <col min="4102" max="4102" width="11.42578125" style="6"/>
-    <col min="4103" max="4103" width="13.140625" style="6" customWidth="1"/>
-    <col min="4104" max="4354" width="11.42578125" style="6"/>
-    <col min="4355" max="4355" width="13.140625" style="6" customWidth="1"/>
-    <col min="4356" max="4356" width="15.140625" style="6" customWidth="1"/>
+    <col min="4102" max="4102" width="11.453125" style="6"/>
+    <col min="4103" max="4103" width="13.1796875" style="6" customWidth="1"/>
+    <col min="4104" max="4354" width="11.453125" style="6"/>
+    <col min="4355" max="4355" width="13.1796875" style="6" customWidth="1"/>
+    <col min="4356" max="4356" width="15.1796875" style="6" customWidth="1"/>
     <col min="4357" max="4357" width="42" style="6" customWidth="1"/>
-    <col min="4358" max="4358" width="11.42578125" style="6"/>
-    <col min="4359" max="4359" width="13.140625" style="6" customWidth="1"/>
-    <col min="4360" max="4610" width="11.42578125" style="6"/>
-    <col min="4611" max="4611" width="13.140625" style="6" customWidth="1"/>
-    <col min="4612" max="4612" width="15.140625" style="6" customWidth="1"/>
+    <col min="4358" max="4358" width="11.453125" style="6"/>
+    <col min="4359" max="4359" width="13.1796875" style="6" customWidth="1"/>
+    <col min="4360" max="4610" width="11.453125" style="6"/>
+    <col min="4611" max="4611" width="13.1796875" style="6" customWidth="1"/>
+    <col min="4612" max="4612" width="15.1796875" style="6" customWidth="1"/>
     <col min="4613" max="4613" width="42" style="6" customWidth="1"/>
-    <col min="4614" max="4614" width="11.42578125" style="6"/>
-    <col min="4615" max="4615" width="13.140625" style="6" customWidth="1"/>
-    <col min="4616" max="4866" width="11.42578125" style="6"/>
-    <col min="4867" max="4867" width="13.140625" style="6" customWidth="1"/>
-    <col min="4868" max="4868" width="15.140625" style="6" customWidth="1"/>
+    <col min="4614" max="4614" width="11.453125" style="6"/>
+    <col min="4615" max="4615" width="13.1796875" style="6" customWidth="1"/>
+    <col min="4616" max="4866" width="11.453125" style="6"/>
+    <col min="4867" max="4867" width="13.1796875" style="6" customWidth="1"/>
+    <col min="4868" max="4868" width="15.1796875" style="6" customWidth="1"/>
     <col min="4869" max="4869" width="42" style="6" customWidth="1"/>
-    <col min="4870" max="4870" width="11.42578125" style="6"/>
-    <col min="4871" max="4871" width="13.140625" style="6" customWidth="1"/>
-    <col min="4872" max="5122" width="11.42578125" style="6"/>
-    <col min="5123" max="5123" width="13.140625" style="6" customWidth="1"/>
-    <col min="5124" max="5124" width="15.140625" style="6" customWidth="1"/>
+    <col min="4870" max="4870" width="11.453125" style="6"/>
+    <col min="4871" max="4871" width="13.1796875" style="6" customWidth="1"/>
+    <col min="4872" max="5122" width="11.453125" style="6"/>
+    <col min="5123" max="5123" width="13.1796875" style="6" customWidth="1"/>
+    <col min="5124" max="5124" width="15.1796875" style="6" customWidth="1"/>
     <col min="5125" max="5125" width="42" style="6" customWidth="1"/>
-    <col min="5126" max="5126" width="11.42578125" style="6"/>
-    <col min="5127" max="5127" width="13.140625" style="6" customWidth="1"/>
-    <col min="5128" max="5378" width="11.42578125" style="6"/>
-    <col min="5379" max="5379" width="13.140625" style="6" customWidth="1"/>
-    <col min="5380" max="5380" width="15.140625" style="6" customWidth="1"/>
+    <col min="5126" max="5126" width="11.453125" style="6"/>
+    <col min="5127" max="5127" width="13.1796875" style="6" customWidth="1"/>
+    <col min="5128" max="5378" width="11.453125" style="6"/>
+    <col min="5379" max="5379" width="13.1796875" style="6" customWidth="1"/>
+    <col min="5380" max="5380" width="15.1796875" style="6" customWidth="1"/>
     <col min="5381" max="5381" width="42" style="6" customWidth="1"/>
-    <col min="5382" max="5382" width="11.42578125" style="6"/>
-    <col min="5383" max="5383" width="13.140625" style="6" customWidth="1"/>
-    <col min="5384" max="5634" width="11.42578125" style="6"/>
-    <col min="5635" max="5635" width="13.140625" style="6" customWidth="1"/>
-    <col min="5636" max="5636" width="15.140625" style="6" customWidth="1"/>
+    <col min="5382" max="5382" width="11.453125" style="6"/>
+    <col min="5383" max="5383" width="13.1796875" style="6" customWidth="1"/>
+    <col min="5384" max="5634" width="11.453125" style="6"/>
+    <col min="5635" max="5635" width="13.1796875" style="6" customWidth="1"/>
+    <col min="5636" max="5636" width="15.1796875" style="6" customWidth="1"/>
     <col min="5637" max="5637" width="42" style="6" customWidth="1"/>
-    <col min="5638" max="5638" width="11.42578125" style="6"/>
-    <col min="5639" max="5639" width="13.140625" style="6" customWidth="1"/>
-    <col min="5640" max="5890" width="11.42578125" style="6"/>
-    <col min="5891" max="5891" width="13.140625" style="6" customWidth="1"/>
-    <col min="5892" max="5892" width="15.140625" style="6" customWidth="1"/>
+    <col min="5638" max="5638" width="11.453125" style="6"/>
+    <col min="5639" max="5639" width="13.1796875" style="6" customWidth="1"/>
+    <col min="5640" max="5890" width="11.453125" style="6"/>
+    <col min="5891" max="5891" width="13.1796875" style="6" customWidth="1"/>
+    <col min="5892" max="5892" width="15.1796875" style="6" customWidth="1"/>
     <col min="5893" max="5893" width="42" style="6" customWidth="1"/>
-    <col min="5894" max="5894" width="11.42578125" style="6"/>
-    <col min="5895" max="5895" width="13.140625" style="6" customWidth="1"/>
-    <col min="5896" max="6146" width="11.42578125" style="6"/>
-    <col min="6147" max="6147" width="13.140625" style="6" customWidth="1"/>
-    <col min="6148" max="6148" width="15.140625" style="6" customWidth="1"/>
+    <col min="5894" max="5894" width="11.453125" style="6"/>
+    <col min="5895" max="5895" width="13.1796875" style="6" customWidth="1"/>
+    <col min="5896" max="6146" width="11.453125" style="6"/>
+    <col min="6147" max="6147" width="13.1796875" style="6" customWidth="1"/>
+    <col min="6148" max="6148" width="15.1796875" style="6" customWidth="1"/>
     <col min="6149" max="6149" width="42" style="6" customWidth="1"/>
-    <col min="6150" max="6150" width="11.42578125" style="6"/>
-    <col min="6151" max="6151" width="13.140625" style="6" customWidth="1"/>
-    <col min="6152" max="6402" width="11.42578125" style="6"/>
-    <col min="6403" max="6403" width="13.140625" style="6" customWidth="1"/>
-    <col min="6404" max="6404" width="15.140625" style="6" customWidth="1"/>
+    <col min="6150" max="6150" width="11.453125" style="6"/>
+    <col min="6151" max="6151" width="13.1796875" style="6" customWidth="1"/>
+    <col min="6152" max="6402" width="11.453125" style="6"/>
+    <col min="6403" max="6403" width="13.1796875" style="6" customWidth="1"/>
+    <col min="6404" max="6404" width="15.1796875" style="6" customWidth="1"/>
     <col min="6405" max="6405" width="42" style="6" customWidth="1"/>
-    <col min="6406" max="6406" width="11.42578125" style="6"/>
-    <col min="6407" max="6407" width="13.140625" style="6" customWidth="1"/>
-    <col min="6408" max="6658" width="11.42578125" style="6"/>
-    <col min="6659" max="6659" width="13.140625" style="6" customWidth="1"/>
-    <col min="6660" max="6660" width="15.140625" style="6" customWidth="1"/>
+    <col min="6406" max="6406" width="11.453125" style="6"/>
+    <col min="6407" max="6407" width="13.1796875" style="6" customWidth="1"/>
+    <col min="6408" max="6658" width="11.453125" style="6"/>
+    <col min="6659" max="6659" width="13.1796875" style="6" customWidth="1"/>
+    <col min="6660" max="6660" width="15.1796875" style="6" customWidth="1"/>
     <col min="6661" max="6661" width="42" style="6" customWidth="1"/>
-    <col min="6662" max="6662" width="11.42578125" style="6"/>
-    <col min="6663" max="6663" width="13.140625" style="6" customWidth="1"/>
-    <col min="6664" max="6914" width="11.42578125" style="6"/>
-    <col min="6915" max="6915" width="13.140625" style="6" customWidth="1"/>
-    <col min="6916" max="6916" width="15.140625" style="6" customWidth="1"/>
+    <col min="6662" max="6662" width="11.453125" style="6"/>
+    <col min="6663" max="6663" width="13.1796875" style="6" customWidth="1"/>
+    <col min="6664" max="6914" width="11.453125" style="6"/>
+    <col min="6915" max="6915" width="13.1796875" style="6" customWidth="1"/>
+    <col min="6916" max="6916" width="15.1796875" style="6" customWidth="1"/>
     <col min="6917" max="6917" width="42" style="6" customWidth="1"/>
-    <col min="6918" max="6918" width="11.42578125" style="6"/>
-    <col min="6919" max="6919" width="13.140625" style="6" customWidth="1"/>
-    <col min="6920" max="7170" width="11.42578125" style="6"/>
-    <col min="7171" max="7171" width="13.140625" style="6" customWidth="1"/>
-    <col min="7172" max="7172" width="15.140625" style="6" customWidth="1"/>
+    <col min="6918" max="6918" width="11.453125" style="6"/>
+    <col min="6919" max="6919" width="13.1796875" style="6" customWidth="1"/>
+    <col min="6920" max="7170" width="11.453125" style="6"/>
+    <col min="7171" max="7171" width="13.1796875" style="6" customWidth="1"/>
+    <col min="7172" max="7172" width="15.1796875" style="6" customWidth="1"/>
     <col min="7173" max="7173" width="42" style="6" customWidth="1"/>
-    <col min="7174" max="7174" width="11.42578125" style="6"/>
-    <col min="7175" max="7175" width="13.140625" style="6" customWidth="1"/>
-    <col min="7176" max="7426" width="11.42578125" style="6"/>
-    <col min="7427" max="7427" width="13.140625" style="6" customWidth="1"/>
-    <col min="7428" max="7428" width="15.140625" style="6" customWidth="1"/>
+    <col min="7174" max="7174" width="11.453125" style="6"/>
+    <col min="7175" max="7175" width="13.1796875" style="6" customWidth="1"/>
+    <col min="7176" max="7426" width="11.453125" style="6"/>
+    <col min="7427" max="7427" width="13.1796875" style="6" customWidth="1"/>
+    <col min="7428" max="7428" width="15.1796875" style="6" customWidth="1"/>
     <col min="7429" max="7429" width="42" style="6" customWidth="1"/>
-    <col min="7430" max="7430" width="11.42578125" style="6"/>
-    <col min="7431" max="7431" width="13.140625" style="6" customWidth="1"/>
-    <col min="7432" max="7682" width="11.42578125" style="6"/>
-    <col min="7683" max="7683" width="13.140625" style="6" customWidth="1"/>
-    <col min="7684" max="7684" width="15.140625" style="6" customWidth="1"/>
+    <col min="7430" max="7430" width="11.453125" style="6"/>
+    <col min="7431" max="7431" width="13.1796875" style="6" customWidth="1"/>
+    <col min="7432" max="7682" width="11.453125" style="6"/>
+    <col min="7683" max="7683" width="13.1796875" style="6" customWidth="1"/>
+    <col min="7684" max="7684" width="15.1796875" style="6" customWidth="1"/>
     <col min="7685" max="7685" width="42" style="6" customWidth="1"/>
-    <col min="7686" max="7686" width="11.42578125" style="6"/>
-    <col min="7687" max="7687" width="13.140625" style="6" customWidth="1"/>
-    <col min="7688" max="7938" width="11.42578125" style="6"/>
-    <col min="7939" max="7939" width="13.140625" style="6" customWidth="1"/>
-    <col min="7940" max="7940" width="15.140625" style="6" customWidth="1"/>
+    <col min="7686" max="7686" width="11.453125" style="6"/>
+    <col min="7687" max="7687" width="13.1796875" style="6" customWidth="1"/>
+    <col min="7688" max="7938" width="11.453125" style="6"/>
+    <col min="7939" max="7939" width="13.1796875" style="6" customWidth="1"/>
+    <col min="7940" max="7940" width="15.1796875" style="6" customWidth="1"/>
     <col min="7941" max="7941" width="42" style="6" customWidth="1"/>
-    <col min="7942" max="7942" width="11.42578125" style="6"/>
-    <col min="7943" max="7943" width="13.140625" style="6" customWidth="1"/>
-    <col min="7944" max="8194" width="11.42578125" style="6"/>
-    <col min="8195" max="8195" width="13.140625" style="6" customWidth="1"/>
-    <col min="8196" max="8196" width="15.140625" style="6" customWidth="1"/>
+    <col min="7942" max="7942" width="11.453125" style="6"/>
+    <col min="7943" max="7943" width="13.1796875" style="6" customWidth="1"/>
+    <col min="7944" max="8194" width="11.453125" style="6"/>
+    <col min="8195" max="8195" width="13.1796875" style="6" customWidth="1"/>
+    <col min="8196" max="8196" width="15.1796875" style="6" customWidth="1"/>
     <col min="8197" max="8197" width="42" style="6" customWidth="1"/>
-    <col min="8198" max="8198" width="11.42578125" style="6"/>
-    <col min="8199" max="8199" width="13.140625" style="6" customWidth="1"/>
-    <col min="8200" max="8450" width="11.42578125" style="6"/>
-    <col min="8451" max="8451" width="13.140625" style="6" customWidth="1"/>
-    <col min="8452" max="8452" width="15.140625" style="6" customWidth="1"/>
+    <col min="8198" max="8198" width="11.453125" style="6"/>
+    <col min="8199" max="8199" width="13.1796875" style="6" customWidth="1"/>
+    <col min="8200" max="8450" width="11.453125" style="6"/>
+    <col min="8451" max="8451" width="13.1796875" style="6" customWidth="1"/>
+    <col min="8452" max="8452" width="15.1796875" style="6" customWidth="1"/>
     <col min="8453" max="8453" width="42" style="6" customWidth="1"/>
-    <col min="8454" max="8454" width="11.42578125" style="6"/>
-    <col min="8455" max="8455" width="13.140625" style="6" customWidth="1"/>
-    <col min="8456" max="8706" width="11.42578125" style="6"/>
-    <col min="8707" max="8707" width="13.140625" style="6" customWidth="1"/>
-    <col min="8708" max="8708" width="15.140625" style="6" customWidth="1"/>
+    <col min="8454" max="8454" width="11.453125" style="6"/>
+    <col min="8455" max="8455" width="13.1796875" style="6" customWidth="1"/>
+    <col min="8456" max="8706" width="11.453125" style="6"/>
+    <col min="8707" max="8707" width="13.1796875" style="6" customWidth="1"/>
+    <col min="8708" max="8708" width="15.1796875" style="6" customWidth="1"/>
     <col min="8709" max="8709" width="42" style="6" customWidth="1"/>
-    <col min="8710" max="8710" width="11.42578125" style="6"/>
-    <col min="8711" max="8711" width="13.140625" style="6" customWidth="1"/>
-    <col min="8712" max="8962" width="11.42578125" style="6"/>
-    <col min="8963" max="8963" width="13.140625" style="6" customWidth="1"/>
-    <col min="8964" max="8964" width="15.140625" style="6" customWidth="1"/>
+    <col min="8710" max="8710" width="11.453125" style="6"/>
+    <col min="8711" max="8711" width="13.1796875" style="6" customWidth="1"/>
+    <col min="8712" max="8962" width="11.453125" style="6"/>
+    <col min="8963" max="8963" width="13.1796875" style="6" customWidth="1"/>
+    <col min="8964" max="8964" width="15.1796875" style="6" customWidth="1"/>
     <col min="8965" max="8965" width="42" style="6" customWidth="1"/>
-    <col min="8966" max="8966" width="11.42578125" style="6"/>
-    <col min="8967" max="8967" width="13.140625" style="6" customWidth="1"/>
-    <col min="8968" max="9218" width="11.42578125" style="6"/>
-    <col min="9219" max="9219" width="13.140625" style="6" customWidth="1"/>
-    <col min="9220" max="9220" width="15.140625" style="6" customWidth="1"/>
+    <col min="8966" max="8966" width="11.453125" style="6"/>
+    <col min="8967" max="8967" width="13.1796875" style="6" customWidth="1"/>
+    <col min="8968" max="9218" width="11.453125" style="6"/>
+    <col min="9219" max="9219" width="13.1796875" style="6" customWidth="1"/>
+    <col min="9220" max="9220" width="15.1796875" style="6" customWidth="1"/>
     <col min="9221" max="9221" width="42" style="6" customWidth="1"/>
-    <col min="9222" max="9222" width="11.42578125" style="6"/>
-    <col min="9223" max="9223" width="13.140625" style="6" customWidth="1"/>
-    <col min="9224" max="9474" width="11.42578125" style="6"/>
-    <col min="9475" max="9475" width="13.140625" style="6" customWidth="1"/>
-    <col min="9476" max="9476" width="15.140625" style="6" customWidth="1"/>
+    <col min="9222" max="9222" width="11.453125" style="6"/>
+    <col min="9223" max="9223" width="13.1796875" style="6" customWidth="1"/>
+    <col min="9224" max="9474" width="11.453125" style="6"/>
+    <col min="9475" max="9475" width="13.1796875" style="6" customWidth="1"/>
+    <col min="9476" max="9476" width="15.1796875" style="6" customWidth="1"/>
     <col min="9477" max="9477" width="42" style="6" customWidth="1"/>
-    <col min="9478" max="9478" width="11.42578125" style="6"/>
-    <col min="9479" max="9479" width="13.140625" style="6" customWidth="1"/>
-    <col min="9480" max="9730" width="11.42578125" style="6"/>
-    <col min="9731" max="9731" width="13.140625" style="6" customWidth="1"/>
-    <col min="9732" max="9732" width="15.140625" style="6" customWidth="1"/>
+    <col min="9478" max="9478" width="11.453125" style="6"/>
+    <col min="9479" max="9479" width="13.1796875" style="6" customWidth="1"/>
+    <col min="9480" max="9730" width="11.453125" style="6"/>
+    <col min="9731" max="9731" width="13.1796875" style="6" customWidth="1"/>
+    <col min="9732" max="9732" width="15.1796875" style="6" customWidth="1"/>
     <col min="9733" max="9733" width="42" style="6" customWidth="1"/>
-    <col min="9734" max="9734" width="11.42578125" style="6"/>
-    <col min="9735" max="9735" width="13.140625" style="6" customWidth="1"/>
-    <col min="9736" max="9986" width="11.42578125" style="6"/>
-    <col min="9987" max="9987" width="13.140625" style="6" customWidth="1"/>
-    <col min="9988" max="9988" width="15.140625" style="6" customWidth="1"/>
+    <col min="9734" max="9734" width="11.453125" style="6"/>
+    <col min="9735" max="9735" width="13.1796875" style="6" customWidth="1"/>
+    <col min="9736" max="9986" width="11.453125" style="6"/>
+    <col min="9987" max="9987" width="13.1796875" style="6" customWidth="1"/>
+    <col min="9988" max="9988" width="15.1796875" style="6" customWidth="1"/>
     <col min="9989" max="9989" width="42" style="6" customWidth="1"/>
-    <col min="9990" max="9990" width="11.42578125" style="6"/>
-    <col min="9991" max="9991" width="13.140625" style="6" customWidth="1"/>
-    <col min="9992" max="10242" width="11.42578125" style="6"/>
-    <col min="10243" max="10243" width="13.140625" style="6" customWidth="1"/>
-    <col min="10244" max="10244" width="15.140625" style="6" customWidth="1"/>
+    <col min="9990" max="9990" width="11.453125" style="6"/>
+    <col min="9991" max="9991" width="13.1796875" style="6" customWidth="1"/>
+    <col min="9992" max="10242" width="11.453125" style="6"/>
+    <col min="10243" max="10243" width="13.1796875" style="6" customWidth="1"/>
+    <col min="10244" max="10244" width="15.1796875" style="6" customWidth="1"/>
     <col min="10245" max="10245" width="42" style="6" customWidth="1"/>
-    <col min="10246" max="10246" width="11.42578125" style="6"/>
-    <col min="10247" max="10247" width="13.140625" style="6" customWidth="1"/>
-    <col min="10248" max="10498" width="11.42578125" style="6"/>
-    <col min="10499" max="10499" width="13.140625" style="6" customWidth="1"/>
-    <col min="10500" max="10500" width="15.140625" style="6" customWidth="1"/>
+    <col min="10246" max="10246" width="11.453125" style="6"/>
+    <col min="10247" max="10247" width="13.1796875" style="6" customWidth="1"/>
+    <col min="10248" max="10498" width="11.453125" style="6"/>
+    <col min="10499" max="10499" width="13.1796875" style="6" customWidth="1"/>
+    <col min="10500" max="10500" width="15.1796875" style="6" customWidth="1"/>
     <col min="10501" max="10501" width="42" style="6" customWidth="1"/>
-    <col min="10502" max="10502" width="11.42578125" style="6"/>
-    <col min="10503" max="10503" width="13.140625" style="6" customWidth="1"/>
-    <col min="10504" max="10754" width="11.42578125" style="6"/>
-    <col min="10755" max="10755" width="13.140625" style="6" customWidth="1"/>
-    <col min="10756" max="10756" width="15.140625" style="6" customWidth="1"/>
+    <col min="10502" max="10502" width="11.453125" style="6"/>
+    <col min="10503" max="10503" width="13.1796875" style="6" customWidth="1"/>
+    <col min="10504" max="10754" width="11.453125" style="6"/>
+    <col min="10755" max="10755" width="13.1796875" style="6" customWidth="1"/>
+    <col min="10756" max="10756" width="15.1796875" style="6" customWidth="1"/>
     <col min="10757" max="10757" width="42" style="6" customWidth="1"/>
-    <col min="10758" max="10758" width="11.42578125" style="6"/>
-    <col min="10759" max="10759" width="13.140625" style="6" customWidth="1"/>
-    <col min="10760" max="11010" width="11.42578125" style="6"/>
-    <col min="11011" max="11011" width="13.140625" style="6" customWidth="1"/>
-    <col min="11012" max="11012" width="15.140625" style="6" customWidth="1"/>
+    <col min="10758" max="10758" width="11.453125" style="6"/>
+    <col min="10759" max="10759" width="13.1796875" style="6" customWidth="1"/>
+    <col min="10760" max="11010" width="11.453125" style="6"/>
+    <col min="11011" max="11011" width="13.1796875" style="6" customWidth="1"/>
+    <col min="11012" max="11012" width="15.1796875" style="6" customWidth="1"/>
     <col min="11013" max="11013" width="42" style="6" customWidth="1"/>
-    <col min="11014" max="11014" width="11.42578125" style="6"/>
-    <col min="11015" max="11015" width="13.140625" style="6" customWidth="1"/>
-    <col min="11016" max="11266" width="11.42578125" style="6"/>
-    <col min="11267" max="11267" width="13.140625" style="6" customWidth="1"/>
-    <col min="11268" max="11268" width="15.140625" style="6" customWidth="1"/>
+    <col min="11014" max="11014" width="11.453125" style="6"/>
+    <col min="11015" max="11015" width="13.1796875" style="6" customWidth="1"/>
+    <col min="11016" max="11266" width="11.453125" style="6"/>
+    <col min="11267" max="11267" width="13.1796875" style="6" customWidth="1"/>
+    <col min="11268" max="11268" width="15.1796875" style="6" customWidth="1"/>
     <col min="11269" max="11269" width="42" style="6" customWidth="1"/>
-    <col min="11270" max="11270" width="11.42578125" style="6"/>
-    <col min="11271" max="11271" width="13.140625" style="6" customWidth="1"/>
-    <col min="11272" max="11522" width="11.42578125" style="6"/>
-    <col min="11523" max="11523" width="13.140625" style="6" customWidth="1"/>
-    <col min="11524" max="11524" width="15.140625" style="6" customWidth="1"/>
+    <col min="11270" max="11270" width="11.453125" style="6"/>
+    <col min="11271" max="11271" width="13.1796875" style="6" customWidth="1"/>
+    <col min="11272" max="11522" width="11.453125" style="6"/>
+    <col min="11523" max="11523" width="13.1796875" style="6" customWidth="1"/>
+    <col min="11524" max="11524" width="15.1796875" style="6" customWidth="1"/>
     <col min="11525" max="11525" width="42" style="6" customWidth="1"/>
-    <col min="11526" max="11526" width="11.42578125" style="6"/>
-    <col min="11527" max="11527" width="13.140625" style="6" customWidth="1"/>
-    <col min="11528" max="11778" width="11.42578125" style="6"/>
-    <col min="11779" max="11779" width="13.140625" style="6" customWidth="1"/>
-    <col min="11780" max="11780" width="15.140625" style="6" customWidth="1"/>
+    <col min="11526" max="11526" width="11.453125" style="6"/>
+    <col min="11527" max="11527" width="13.1796875" style="6" customWidth="1"/>
+    <col min="11528" max="11778" width="11.453125" style="6"/>
+    <col min="11779" max="11779" width="13.1796875" style="6" customWidth="1"/>
+    <col min="11780" max="11780" width="15.1796875" style="6" customWidth="1"/>
     <col min="11781" max="11781" width="42" style="6" customWidth="1"/>
-    <col min="11782" max="11782" width="11.42578125" style="6"/>
-    <col min="11783" max="11783" width="13.140625" style="6" customWidth="1"/>
-    <col min="11784" max="12034" width="11.42578125" style="6"/>
-    <col min="12035" max="12035" width="13.140625" style="6" customWidth="1"/>
-    <col min="12036" max="12036" width="15.140625" style="6" customWidth="1"/>
+    <col min="11782" max="11782" width="11.453125" style="6"/>
+    <col min="11783" max="11783" width="13.1796875" style="6" customWidth="1"/>
+    <col min="11784" max="12034" width="11.453125" style="6"/>
+    <col min="12035" max="12035" width="13.1796875" style="6" customWidth="1"/>
+    <col min="12036" max="12036" width="15.1796875" style="6" customWidth="1"/>
     <col min="12037" max="12037" width="42" style="6" customWidth="1"/>
-    <col min="12038" max="12038" width="11.42578125" style="6"/>
-    <col min="12039" max="12039" width="13.140625" style="6" customWidth="1"/>
-    <col min="12040" max="12290" width="11.42578125" style="6"/>
-    <col min="12291" max="12291" width="13.140625" style="6" customWidth="1"/>
-    <col min="12292" max="12292" width="15.140625" style="6" customWidth="1"/>
+    <col min="12038" max="12038" width="11.453125" style="6"/>
+    <col min="12039" max="12039" width="13.1796875" style="6" customWidth="1"/>
+    <col min="12040" max="12290" width="11.453125" style="6"/>
+    <col min="12291" max="12291" width="13.1796875" style="6" customWidth="1"/>
+    <col min="12292" max="12292" width="15.1796875" style="6" customWidth="1"/>
     <col min="12293" max="12293" width="42" style="6" customWidth="1"/>
-    <col min="12294" max="12294" width="11.42578125" style="6"/>
-    <col min="12295" max="12295" width="13.140625" style="6" customWidth="1"/>
-    <col min="12296" max="12546" width="11.42578125" style="6"/>
-    <col min="12547" max="12547" width="13.140625" style="6" customWidth="1"/>
-    <col min="12548" max="12548" width="15.140625" style="6" customWidth="1"/>
+    <col min="12294" max="12294" width="11.453125" style="6"/>
+    <col min="12295" max="12295" width="13.1796875" style="6" customWidth="1"/>
+    <col min="12296" max="12546" width="11.453125" style="6"/>
+    <col min="12547" max="12547" width="13.1796875" style="6" customWidth="1"/>
+    <col min="12548" max="12548" width="15.1796875" style="6" customWidth="1"/>
     <col min="12549" max="12549" width="42" style="6" customWidth="1"/>
-    <col min="12550" max="12550" width="11.42578125" style="6"/>
-    <col min="12551" max="12551" width="13.140625" style="6" customWidth="1"/>
-    <col min="12552" max="12802" width="11.42578125" style="6"/>
-    <col min="12803" max="12803" width="13.140625" style="6" customWidth="1"/>
-    <col min="12804" max="12804" width="15.140625" style="6" customWidth="1"/>
+    <col min="12550" max="12550" width="11.453125" style="6"/>
+    <col min="12551" max="12551" width="13.1796875" style="6" customWidth="1"/>
+    <col min="12552" max="12802" width="11.453125" style="6"/>
+    <col min="12803" max="12803" width="13.1796875" style="6" customWidth="1"/>
+    <col min="12804" max="12804" width="15.1796875" style="6" customWidth="1"/>
     <col min="12805" max="12805" width="42" style="6" customWidth="1"/>
-    <col min="12806" max="12806" width="11.42578125" style="6"/>
-    <col min="12807" max="12807" width="13.140625" style="6" customWidth="1"/>
-    <col min="12808" max="13058" width="11.42578125" style="6"/>
-    <col min="13059" max="13059" width="13.140625" style="6" customWidth="1"/>
-    <col min="13060" max="13060" width="15.140625" style="6" customWidth="1"/>
+    <col min="12806" max="12806" width="11.453125" style="6"/>
+    <col min="12807" max="12807" width="13.1796875" style="6" customWidth="1"/>
+    <col min="12808" max="13058" width="11.453125" style="6"/>
+    <col min="13059" max="13059" width="13.1796875" style="6" customWidth="1"/>
+    <col min="13060" max="13060" width="15.1796875" style="6" customWidth="1"/>
     <col min="13061" max="13061" width="42" style="6" customWidth="1"/>
-    <col min="13062" max="13062" width="11.42578125" style="6"/>
-    <col min="13063" max="13063" width="13.140625" style="6" customWidth="1"/>
-    <col min="13064" max="13314" width="11.42578125" style="6"/>
-    <col min="13315" max="13315" width="13.140625" style="6" customWidth="1"/>
-    <col min="13316" max="13316" width="15.140625" style="6" customWidth="1"/>
+    <col min="13062" max="13062" width="11.453125" style="6"/>
+    <col min="13063" max="13063" width="13.1796875" style="6" customWidth="1"/>
+    <col min="13064" max="13314" width="11.453125" style="6"/>
+    <col min="13315" max="13315" width="13.1796875" style="6" customWidth="1"/>
+    <col min="13316" max="13316" width="15.1796875" style="6" customWidth="1"/>
     <col min="13317" max="13317" width="42" style="6" customWidth="1"/>
-    <col min="13318" max="13318" width="11.42578125" style="6"/>
-    <col min="13319" max="13319" width="13.140625" style="6" customWidth="1"/>
-    <col min="13320" max="13570" width="11.42578125" style="6"/>
-    <col min="13571" max="13571" width="13.140625" style="6" customWidth="1"/>
-    <col min="13572" max="13572" width="15.140625" style="6" customWidth="1"/>
+    <col min="13318" max="13318" width="11.453125" style="6"/>
+    <col min="13319" max="13319" width="13.1796875" style="6" customWidth="1"/>
+    <col min="13320" max="13570" width="11.453125" style="6"/>
+    <col min="13571" max="13571" width="13.1796875" style="6" customWidth="1"/>
+    <col min="13572" max="13572" width="15.1796875" style="6" customWidth="1"/>
     <col min="13573" max="13573" width="42" style="6" customWidth="1"/>
-    <col min="13574" max="13574" width="11.42578125" style="6"/>
-    <col min="13575" max="13575" width="13.140625" style="6" customWidth="1"/>
-    <col min="13576" max="13826" width="11.42578125" style="6"/>
-    <col min="13827" max="13827" width="13.140625" style="6" customWidth="1"/>
-    <col min="13828" max="13828" width="15.140625" style="6" customWidth="1"/>
+    <col min="13574" max="13574" width="11.453125" style="6"/>
+    <col min="13575" max="13575" width="13.1796875" style="6" customWidth="1"/>
+    <col min="13576" max="13826" width="11.453125" style="6"/>
+    <col min="13827" max="13827" width="13.1796875" style="6" customWidth="1"/>
+    <col min="13828" max="13828" width="15.1796875" style="6" customWidth="1"/>
     <col min="13829" max="13829" width="42" style="6" customWidth="1"/>
-    <col min="13830" max="13830" width="11.42578125" style="6"/>
-    <col min="13831" max="13831" width="13.140625" style="6" customWidth="1"/>
-    <col min="13832" max="14082" width="11.42578125" style="6"/>
-    <col min="14083" max="14083" width="13.140625" style="6" customWidth="1"/>
-    <col min="14084" max="14084" width="15.140625" style="6" customWidth="1"/>
+    <col min="13830" max="13830" width="11.453125" style="6"/>
+    <col min="13831" max="13831" width="13.1796875" style="6" customWidth="1"/>
+    <col min="13832" max="14082" width="11.453125" style="6"/>
+    <col min="14083" max="14083" width="13.1796875" style="6" customWidth="1"/>
+    <col min="14084" max="14084" width="15.1796875" style="6" customWidth="1"/>
     <col min="14085" max="14085" width="42" style="6" customWidth="1"/>
-    <col min="14086" max="14086" width="11.42578125" style="6"/>
-    <col min="14087" max="14087" width="13.140625" style="6" customWidth="1"/>
-    <col min="14088" max="14338" width="11.42578125" style="6"/>
-    <col min="14339" max="14339" width="13.140625" style="6" customWidth="1"/>
-    <col min="14340" max="14340" width="15.140625" style="6" customWidth="1"/>
+    <col min="14086" max="14086" width="11.453125" style="6"/>
+    <col min="14087" max="14087" width="13.1796875" style="6" customWidth="1"/>
+    <col min="14088" max="14338" width="11.453125" style="6"/>
+    <col min="14339" max="14339" width="13.1796875" style="6" customWidth="1"/>
+    <col min="14340" max="14340" width="15.1796875" style="6" customWidth="1"/>
     <col min="14341" max="14341" width="42" style="6" customWidth="1"/>
-    <col min="14342" max="14342" width="11.42578125" style="6"/>
-    <col min="14343" max="14343" width="13.140625" style="6" customWidth="1"/>
-    <col min="14344" max="14594" width="11.42578125" style="6"/>
-    <col min="14595" max="14595" width="13.140625" style="6" customWidth="1"/>
-    <col min="14596" max="14596" width="15.140625" style="6" customWidth="1"/>
+    <col min="14342" max="14342" width="11.453125" style="6"/>
+    <col min="14343" max="14343" width="13.1796875" style="6" customWidth="1"/>
+    <col min="14344" max="14594" width="11.453125" style="6"/>
+    <col min="14595" max="14595" width="13.1796875" style="6" customWidth="1"/>
+    <col min="14596" max="14596" width="15.1796875" style="6" customWidth="1"/>
     <col min="14597" max="14597" width="42" style="6" customWidth="1"/>
-    <col min="14598" max="14598" width="11.42578125" style="6"/>
-    <col min="14599" max="14599" width="13.140625" style="6" customWidth="1"/>
-    <col min="14600" max="14850" width="11.42578125" style="6"/>
-    <col min="14851" max="14851" width="13.140625" style="6" customWidth="1"/>
-    <col min="14852" max="14852" width="15.140625" style="6" customWidth="1"/>
+    <col min="14598" max="14598" width="11.453125" style="6"/>
+    <col min="14599" max="14599" width="13.1796875" style="6" customWidth="1"/>
+    <col min="14600" max="14850" width="11.453125" style="6"/>
+    <col min="14851" max="14851" width="13.1796875" style="6" customWidth="1"/>
+    <col min="14852" max="14852" width="15.1796875" style="6" customWidth="1"/>
     <col min="14853" max="14853" width="42" style="6" customWidth="1"/>
-    <col min="14854" max="14854" width="11.42578125" style="6"/>
-    <col min="14855" max="14855" width="13.140625" style="6" customWidth="1"/>
-    <col min="14856" max="15106" width="11.42578125" style="6"/>
-    <col min="15107" max="15107" width="13.140625" style="6" customWidth="1"/>
-    <col min="15108" max="15108" width="15.140625" style="6" customWidth="1"/>
+    <col min="14854" max="14854" width="11.453125" style="6"/>
+    <col min="14855" max="14855" width="13.1796875" style="6" customWidth="1"/>
+    <col min="14856" max="15106" width="11.453125" style="6"/>
+    <col min="15107" max="15107" width="13.1796875" style="6" customWidth="1"/>
+    <col min="15108" max="15108" width="15.1796875" style="6" customWidth="1"/>
     <col min="15109" max="15109" width="42" style="6" customWidth="1"/>
-    <col min="15110" max="15110" width="11.42578125" style="6"/>
-    <col min="15111" max="15111" width="13.140625" style="6" customWidth="1"/>
-    <col min="15112" max="15362" width="11.42578125" style="6"/>
-    <col min="15363" max="15363" width="13.140625" style="6" customWidth="1"/>
-    <col min="15364" max="15364" width="15.140625" style="6" customWidth="1"/>
+    <col min="15110" max="15110" width="11.453125" style="6"/>
+    <col min="15111" max="15111" width="13.1796875" style="6" customWidth="1"/>
+    <col min="15112" max="15362" width="11.453125" style="6"/>
+    <col min="15363" max="15363" width="13.1796875" style="6" customWidth="1"/>
+    <col min="15364" max="15364" width="15.1796875" style="6" customWidth="1"/>
     <col min="15365" max="15365" width="42" style="6" customWidth="1"/>
-    <col min="15366" max="15366" width="11.42578125" style="6"/>
-    <col min="15367" max="15367" width="13.140625" style="6" customWidth="1"/>
-    <col min="15368" max="15618" width="11.42578125" style="6"/>
-    <col min="15619" max="15619" width="13.140625" style="6" customWidth="1"/>
-    <col min="15620" max="15620" width="15.140625" style="6" customWidth="1"/>
+    <col min="15366" max="15366" width="11.453125" style="6"/>
+    <col min="15367" max="15367" width="13.1796875" style="6" customWidth="1"/>
+    <col min="15368" max="15618" width="11.453125" style="6"/>
+    <col min="15619" max="15619" width="13.1796875" style="6" customWidth="1"/>
+    <col min="15620" max="15620" width="15.1796875" style="6" customWidth="1"/>
     <col min="15621" max="15621" width="42" style="6" customWidth="1"/>
-    <col min="15622" max="15622" width="11.42578125" style="6"/>
-    <col min="15623" max="15623" width="13.140625" style="6" customWidth="1"/>
-    <col min="15624" max="15874" width="11.42578125" style="6"/>
-    <col min="15875" max="15875" width="13.140625" style="6" customWidth="1"/>
-    <col min="15876" max="15876" width="15.140625" style="6" customWidth="1"/>
+    <col min="15622" max="15622" width="11.453125" style="6"/>
+    <col min="15623" max="15623" width="13.1796875" style="6" customWidth="1"/>
+    <col min="15624" max="15874" width="11.453125" style="6"/>
+    <col min="15875" max="15875" width="13.1796875" style="6" customWidth="1"/>
+    <col min="15876" max="15876" width="15.1796875" style="6" customWidth="1"/>
     <col min="15877" max="15877" width="42" style="6" customWidth="1"/>
-    <col min="15878" max="15878" width="11.42578125" style="6"/>
-    <col min="15879" max="15879" width="13.140625" style="6" customWidth="1"/>
-    <col min="15880" max="16130" width="11.42578125" style="6"/>
-    <col min="16131" max="16131" width="13.140625" style="6" customWidth="1"/>
-    <col min="16132" max="16132" width="15.140625" style="6" customWidth="1"/>
+    <col min="15878" max="15878" width="11.453125" style="6"/>
+    <col min="15879" max="15879" width="13.1796875" style="6" customWidth="1"/>
+    <col min="15880" max="16130" width="11.453125" style="6"/>
+    <col min="16131" max="16131" width="13.1796875" style="6" customWidth="1"/>
+    <col min="16132" max="16132" width="15.1796875" style="6" customWidth="1"/>
     <col min="16133" max="16133" width="42" style="6" customWidth="1"/>
-    <col min="16134" max="16134" width="11.42578125" style="6"/>
-    <col min="16135" max="16135" width="13.140625" style="6" customWidth="1"/>
-    <col min="16136" max="16384" width="11.42578125" style="6"/>
+    <col min="16134" max="16134" width="11.453125" style="6"/>
+    <col min="16135" max="16135" width="13.1796875" style="6" customWidth="1"/>
+    <col min="16136" max="16384" width="11.453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:14" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="1" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:14" s="25" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="58"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -1941,10 +1964,10 @@
       <c r="J2" s="29"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:14" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="3" spans="1:14" s="25" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
-      <c r="C3" s="62"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="33" t="s">
         <v>24</v>
       </c>
@@ -1956,16 +1979,16 @@
       <c r="J3" s="29"/>
       <c r="K3" s="30"/>
     </row>
-    <row r="4" spans="1:14" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:14" s="25" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="64"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1973,52 +1996,52 @@
       <c r="J4" s="29"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:14" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="5" spans="1:14" s="25" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A5" s="35"/>
       <c r="B5" s="36"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="65" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="66"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-    </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+    </row>
+    <row r="7" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="24">
         <f ca="1">NOW()</f>
-        <v>45397.647212037038</v>
+        <v>45397.813247337966</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="26">
-        <v>20240400544</v>
+        <v>20240400545</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -2027,7 +2050,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>2</v>
       </c>
@@ -2044,7 +2067,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -2053,11 +2076,11 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:14" ht="20.149999999999999" customHeight="1">
+      <c r="A11" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="56"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="18" t="s">
         <v>29</v>
       </c>
@@ -2070,7 +2093,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -2096,7 +2119,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -2105,25 +2128,25 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="24">
         <f ca="1">NOW()</f>
-        <v>45397.647212037038</v>
+        <v>45397.813247337966</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -2132,20 +2155,20 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="14"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2154,24 +2177,24 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2180,18 +2203,20 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1">
       <c r="A21" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="17"/>
-      <c r="C21" s="28"/>
+      <c r="C21" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="D21" s="16"/>
       <c r="E21" s="23"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="4"/>
       <c r="C22" s="8"/>
@@ -2225,354 +2250,292 @@
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
     </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>38</v>
+    <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1">
+      <c r="A24" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="55">
+        <v>2300039179</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>46</v>
       </c>
       <c r="D24" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="39">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="G24" s="39">
-        <f t="shared" ref="G24:G32" si="0">D24*F24</f>
-        <v>900</v>
+        <f t="shared" ref="G24:G28" si="0">D24*F24</f>
+        <v>1200</v>
       </c>
       <c r="H24" s="8"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
     </row>
-    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>41</v>
+    <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1">
+      <c r="A25" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="55">
+        <v>2200107925</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>48</v>
       </c>
       <c r="D25" s="51">
         <v>1</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="39">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="G25" s="39">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="H25" s="8"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
     </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>44</v>
+    <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1">
+      <c r="A26" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="55">
+        <v>2100082660</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="51">
         <v>1</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="39">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="G26" s="39">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="H26" s="8"/>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>44</v>
+    <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1">
+      <c r="A27" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="55">
+        <v>2300041054</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>52</v>
       </c>
       <c r="D27" s="51">
         <v>1</v>
       </c>
       <c r="E27" s="38"/>
       <c r="F27" s="39">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G27" s="39">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="H27" s="8"/>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
     </row>
-    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>47</v>
+    <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1">
+      <c r="A28" s="55">
+        <v>800007</v>
+      </c>
+      <c r="B28" s="55">
+        <v>20231100110</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>53</v>
       </c>
       <c r="D28" s="51">
         <v>1</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="39">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="G28" s="39">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="H28" s="8"/>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
     </row>
-    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1">
       <c r="A29" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="51">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="52">
+        <v>10</v>
       </c>
       <c r="E29" s="38"/>
-      <c r="F29" s="39">
-        <v>450</v>
-      </c>
-      <c r="G29" s="39">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="8"/>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
     </row>
-    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="51">
-        <v>1</v>
-      </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39">
-        <v>450</v>
-      </c>
-      <c r="G30" s="39">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-    </row>
-    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="51">
-        <v>1</v>
-      </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39">
-        <v>450</v>
-      </c>
-      <c r="G31" s="39">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="51">
-        <v>1</v>
-      </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39">
-        <v>450</v>
-      </c>
-      <c r="G32" s="39">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-    </row>
-    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="52">
-        <v>10</v>
-      </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="8"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-    </row>
-    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="46" t="s">
+    <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="47" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="49" t="e">
-        <f>G34*15%</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="46" t="s">
+      <c r="G30" s="47">
+        <f>SUM(G24:G29)</f>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="49">
+        <f>G30*15%</f>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="20.149999999999999" customHeight="1">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="49" t="e">
-        <f>G34+G35</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="41"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
-    </row>
-    <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
+      <c r="G32" s="49">
+        <f>G30+G31</f>
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20.149999999999999" customHeight="1">
+      <c r="A33" s="41"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="42"/>
+    </row>
+    <row r="34" spans="1:7" ht="20.149999999999999" customHeight="1">
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" ht="20.149999999999999" customHeight="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.149999999999999" customHeight="1">
+      <c r="A36" s="8"/>
+      <c r="B36"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.149999999999999" customHeight="1">
+      <c r="A37" s="8"/>
+      <c r="B37"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="45"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:7" ht="20.149999999999999" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="4"/>
+      <c r="C39"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:7" ht="20.149999999999999" customHeight="1">
       <c r="A40" s="8"/>
-      <c r="B40"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="8"/>
+      <c r="C40"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A41" s="8"/>
-      <c r="B41"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="45"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="42" spans="1:7" ht="20.149999999999999" customHeight="1">
       <c r="A42" s="8"/>
-      <c r="B42" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="45"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:7" ht="20.149999999999999" customHeight="1">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
-      <c r="C43"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:7" ht="20.149999999999999" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44"/>
@@ -2581,36 +2544,36 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="45" spans="1:7" ht="20.149999999999999" customHeight="1">
       <c r="A45" s="8"/>
-      <c r="B45" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="45"/>
+      <c r="B45" s="8"/>
+      <c r="C45"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
+      <c r="B46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="45"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:7" ht="20.149999999999999" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
+      <c r="C47"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:7" ht="20.149999999999999" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48"/>
@@ -2619,27 +2582,27 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49"/>
+      <c r="B49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="45"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="50" spans="1:7" ht="20.149999999999999" customHeight="1">
       <c r="A50" s="8"/>
-      <c r="B50" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="45"/>
+      <c r="B50" s="8"/>
+      <c r="C50"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:7" ht="20.149999999999999" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51"/>
@@ -2648,54 +2611,16 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52"/>
+      <c r="B52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="45"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="45"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2708,6 +2633,18 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
